--- a/IMU_TaskList.xlsx
+++ b/IMU_TaskList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\OneDrive_Politecnico_backup\Desktop\IMU_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E0C6C7-80A3-4397-A757-58317A97229B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3F82E2-C808-4F78-A5C0-2B4503961964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,18 +100,9 @@
     <t>Sort and remove duplicate timestamps</t>
   </si>
   <si>
-    <t>Resample data to a fixed frequency (e.g., 50 Hz)</t>
-  </si>
-  <si>
     <t>Interpolate short gaps in data</t>
   </si>
   <si>
-    <t>Detect and handle outliers (Z-score or IQR)</t>
-  </si>
-  <si>
-    <t>Apply smoothing (rolling median / mean)</t>
-  </si>
-  <si>
     <t>Data Preprocessing &amp; Feature Engineering</t>
   </si>
   <si>
@@ -176,6 +167,15 @@
   </si>
   <si>
     <t>Skipped</t>
+  </si>
+  <si>
+    <t>Detect and handle outliers (IQR)</t>
+  </si>
+  <si>
+    <t>Resample data to a fixed frequency (30 Hz)</t>
+  </si>
+  <si>
+    <t>Apply smoothing (rolling median)</t>
   </si>
 </sst>
 </file>
@@ -572,14 +572,14 @@
   </sheetPr>
   <dimension ref="A2:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.453125" customWidth="1"/>
-    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="1" max="1" width="38.36328125" customWidth="1"/>
+    <col min="2" max="2" width="42.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
@@ -654,7 +654,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D7" s="9"/>
     </row>
@@ -678,7 +678,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D9" s="9"/>
     </row>
@@ -752,7 +752,7 @@
         <v>23</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>24</v>
@@ -766,7 +766,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D16" s="9"/>
     </row>
@@ -775,10 +775,10 @@
         <v>22</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D17" s="9"/>
     </row>
@@ -787,10 +787,10 @@
         <v>22</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D18" s="9"/>
     </row>
@@ -799,10 +799,10 @@
         <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D19" s="9"/>
     </row>
@@ -811,7 +811,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>9</v>
@@ -820,10 +820,10 @@
     </row>
     <row r="21" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>9</v>
@@ -834,10 +834,10 @@
     </row>
     <row r="22" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>9</v>
@@ -846,10 +846,10 @@
     </row>
     <row r="23" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>9</v>
@@ -858,10 +858,10 @@
     </row>
     <row r="24" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>9</v>
@@ -870,10 +870,10 @@
     </row>
     <row r="25" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>9</v>
@@ -884,10 +884,10 @@
     </row>
     <row r="26" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>9</v>
@@ -896,10 +896,10 @@
     </row>
     <row r="27" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>9</v>
@@ -908,10 +908,10 @@
     </row>
     <row r="28" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>9</v>
@@ -920,10 +920,10 @@
     </row>
     <row r="29" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>9</v>
@@ -932,10 +932,10 @@
     </row>
     <row r="30" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>9</v>
@@ -944,10 +944,10 @@
     </row>
     <row r="31" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>9</v>
@@ -958,10 +958,10 @@
     </row>
     <row r="32" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>9</v>
@@ -970,10 +970,10 @@
     </row>
     <row r="33" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>9</v>
@@ -982,10 +982,10 @@
     </row>
     <row r="34" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>9</v>
@@ -994,10 +994,10 @@
     </row>
     <row r="35" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>9</v>
@@ -1006,10 +1006,10 @@
     </row>
     <row r="36" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>9</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>9</v>
@@ -1030,10 +1030,10 @@
     </row>
     <row r="38" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>9</v>
